--- a/Data/store_name.xlsx
+++ b/Data/store_name.xlsx
@@ -11,14 +11,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>store_name</t>
   </si>
   <si>
-    <t>Pink-ali-prod-12</t>
-  </si>
-  <si>
     <t>Pink-ali-prod-13</t>
   </si>
   <si>
@@ -29,6 +26,177 @@
   </si>
   <si>
     <t>Pink-ali-prod-16</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-17</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-18</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-19</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-20</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-21</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-22</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-23</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-24</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-25</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-26</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-27</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-28</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-29</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-30</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-31</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-32</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-33</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-34</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-35</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-36</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-37</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-38</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-39</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-40</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-41</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-42</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-43</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-44</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-45</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-46</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-47</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-48</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-49</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-50</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-51</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-52</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-53</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-54</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-55</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-56</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-57</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-58</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-59</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-60</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-61</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-62</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-63</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-64</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-65</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-66</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-67</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-68</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-69</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-70</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-71</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-72</t>
+  </si>
+  <si>
+    <t>Pink-ali-prod-73</t>
   </si>
 </sst>
 </file>
@@ -289,33 +457,313 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
